--- a/syncronisation/Time sheet - FO.xlsx
+++ b/syncronisation/Time sheet - FO.xlsx
@@ -16,8 +16,10 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Mom''s'!$A$1:$E$1468</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Mine!$A$1:$E$1469</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Mine!$A$1:$E$1469</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Mine!$A$1:$E$1469</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">'Mom''s'!$A$1:$E$1468</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Mom''s'!$A$1:$E$1468</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Mom''s'!$A$1:$E$1468</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1739,7 +1741,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="48">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -1889,11 +1891,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="H:MM"/>
-    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1987,7 +1988,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2009,10 +2010,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2040,9 +2037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2052,7 +2049,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2061,7 +2058,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2082,9 +2079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2094,7 +2091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2103,7 +2100,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2124,9 +2121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2136,7 +2133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2145,7 +2142,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2166,9 +2163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2178,7 +2175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2187,7 +2184,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2208,9 +2205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2220,7 +2217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2229,7 +2226,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2250,9 +2247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2262,7 +2259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2271,7 +2268,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2292,9 +2289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2304,7 +2301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2313,7 +2310,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2334,9 +2331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2346,7 +2343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2355,7 +2352,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2376,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2388,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2397,7 +2394,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2418,9 +2415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2430,7 +2427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2439,7 +2436,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2460,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2472,7 +2469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2481,7 +2478,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2502,9 +2499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2514,7 +2511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2523,7 +2520,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2544,9 +2541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2556,7 +2553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2565,7 +2562,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2586,9 +2583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2598,7 +2595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2607,7 +2604,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2628,9 +2625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2640,7 +2637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2649,7 +2646,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2670,9 +2667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2682,7 +2679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2691,7 +2688,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2712,9 +2709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2724,7 +2721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,7 +2730,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2754,9 +2751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2766,7 +2763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2775,7 +2772,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2796,9 +2793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2808,7 +2805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2817,7 +2814,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2838,9 +2835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2850,7 +2847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2859,7 +2856,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2880,9 +2877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2892,7 +2889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2901,7 +2898,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2922,9 +2919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2934,7 +2931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2943,7 +2940,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2964,9 +2961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2976,7 +2973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2982,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3006,9 +3003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3018,7 +3015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3027,7 +3024,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3048,9 +3045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3060,7 +3057,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3069,7 +3066,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3090,9 +3087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3102,7 +3099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3111,7 +3108,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3132,9 +3129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3144,7 +3141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3153,7 +3150,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3174,9 +3171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3186,7 +3183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3195,7 +3192,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3216,9 +3213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3228,7 +3225,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3237,7 +3234,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3258,9 +3255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3270,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3279,7 +3276,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3300,9 +3297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3312,7 +3309,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3321,7 +3318,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3342,9 +3339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3354,7 +3351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3363,7 +3360,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3384,9 +3381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3396,7 +3393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3405,7 +3402,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3426,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3438,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3447,7 +3444,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3468,9 +3465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3480,7 +3477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3489,7 +3486,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3510,9 +3507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3522,7 +3519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3531,7 +3528,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3552,9 +3549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3564,7 +3561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3573,7 +3570,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3594,9 +3591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3606,7 +3603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3615,7 +3612,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3636,9 +3633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3648,7 +3645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3657,7 +3654,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3678,9 +3675,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3690,7 +3687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3699,7 +3696,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3720,9 +3717,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3732,7 +3729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3741,7 +3738,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3762,9 +3759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3774,7 +3771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3783,7 +3780,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3804,9 +3801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3816,7 +3813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3825,7 +3822,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3846,9 +3843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3858,7 +3855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3867,7 +3864,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3888,9 +3885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3900,7 +3897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3909,7 +3906,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3930,9 +3927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3942,7 +3939,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3951,7 +3948,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3972,9 +3969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3984,7 +3981,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3993,7 +3990,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4014,9 +4011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4026,7 +4023,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4035,7 +4032,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4056,9 +4053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4068,7 +4065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4077,7 +4074,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4098,9 +4095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4110,7 +4107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4119,7 +4116,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4140,9 +4137,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4152,7 +4149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4161,7 +4158,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4182,9 +4179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4194,7 +4191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4203,7 +4200,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4224,9 +4221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4236,7 +4233,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4245,7 +4242,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4266,9 +4263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4278,7 +4275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,7 +4284,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4308,9 +4305,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4320,7 +4317,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4329,7 +4326,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4350,9 +4347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4362,7 +4359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4371,7 +4368,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4392,9 +4389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4404,7 +4401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4413,7 +4410,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4434,9 +4431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4446,7 +4443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4455,7 +4452,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4476,9 +4473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4488,7 +4485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4497,7 +4494,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4518,9 +4515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4530,7 +4527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4563,9 +4560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4575,7 +4572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4608,9 +4605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4620,7 +4617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4653,9 +4650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4665,7 +4662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4698,9 +4695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4710,7 +4707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4743,9 +4740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4755,7 +4752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4788,9 +4785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4800,7 +4797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4833,9 +4830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4845,7 +4842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4878,9 +4875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4890,7 +4887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4923,9 +4920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4935,7 +4932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4968,9 +4965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4980,7 +4977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5013,9 +5010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5025,7 +5022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5058,9 +5055,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5070,7 +5067,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5103,9 +5100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5115,7 +5112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5148,9 +5145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5160,7 +5157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5193,9 +5190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5205,7 +5202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5238,9 +5235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5250,7 +5247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5283,9 +5280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5295,7 +5292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5328,9 +5325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5340,7 +5337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5373,9 +5370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5385,7 +5382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5418,9 +5415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5430,7 +5427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5463,9 +5460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5475,7 +5472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5508,9 +5505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5520,7 +5517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5553,9 +5550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5565,7 +5562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5598,9 +5595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5610,7 +5607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5643,9 +5640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5655,7 +5652,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5688,9 +5685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5700,7 +5697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5733,9 +5730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5745,7 +5742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5778,9 +5775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5790,7 +5787,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5823,9 +5820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5835,7 +5832,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5868,9 +5865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5880,7 +5877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5913,9 +5910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5925,7 +5922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5958,9 +5955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5970,7 +5967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6003,9 +6000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6015,7 +6012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6048,9 +6045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6060,7 +6057,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6093,9 +6090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6105,7 +6102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6138,9 +6135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6150,7 +6147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6183,9 +6180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6195,7 +6192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6228,9 +6225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6240,7 +6237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6273,9 +6270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6285,7 +6282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6318,9 +6315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6330,7 +6327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6363,9 +6360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6375,7 +6372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6408,9 +6405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6420,7 +6417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6453,9 +6450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6465,7 +6462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6498,9 +6495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6510,7 +6507,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6543,9 +6540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6555,7 +6552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6588,9 +6585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6600,7 +6597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6633,9 +6630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6645,7 +6642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6678,9 +6675,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6690,7 +6687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6723,9 +6720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6735,7 +6732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6768,9 +6765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6780,7 +6777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6813,9 +6810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6825,7 +6822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6858,9 +6855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6870,7 +6867,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6903,9 +6900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6915,7 +6912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6948,9 +6945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6960,7 +6957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6993,9 +6990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7005,7 +7002,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7038,9 +7035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7050,7 +7047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7083,9 +7080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7095,7 +7092,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7128,9 +7125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7140,7 +7137,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7178,9 +7175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7190,7 +7187,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7199,7 +7196,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -7220,9 +7217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7232,7 +7229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12686400" cy="9524160"/>
+          <a:ext cx="12714840" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7241,7 +7238,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -7262,9 +7259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7274,7 +7271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7307,9 +7304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7319,7 +7316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12657960" cy="9524520"/>
+          <a:ext cx="12686400" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7363,7 +7360,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="9.10526315789474"/>
@@ -7390,21 +7387,21 @@
       </c>
       <c r="G1" s="4" t="n">
         <f aca="false">SUM(D2:D997)</f>
-        <v>14.255005360617</v>
+        <v>15.1168109161725</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="n">
         <f aca="false">G1 / 8</f>
-        <v>1.78187567007712</v>
+        <v>1.88960136452156</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5" t="n">
         <f aca="false">I1 / 22</f>
-        <v>0.0809943486398691</v>
+        <v>0.0858909711146166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13185,17 +13182,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <v>43439</v>
       </c>
       <c r="B322" s="5" t="n">
         <v>0.83125</v>
       </c>
-      <c r="C322" s="5"/>
+      <c r="C322" s="5" t="n">
+        <v>0.861805555555556</v>
+      </c>
       <c r="D322" s="5" t="n">
         <f aca="false">C322-B322</f>
-        <v>-0.83125</v>
+        <v>0.0305555555555556</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20322,7 +20324,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="9.10526315789474"/>
@@ -20367,7 +20369,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="1" t="n">
         <v>42911</v>
       </c>
       <c r="B2" s="5" t="n">
@@ -20387,7 +20389,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="1" t="n">
         <v>42912</v>
       </c>
       <c r="B3" s="5" t="n">
@@ -20407,7 +20409,7 @@
       <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="n">
@@ -20418,7 +20420,7 @@
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="n">
@@ -20429,7 +20431,7 @@
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="n">
@@ -20440,7 +20442,7 @@
       <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="n">
@@ -20451,7 +20453,7 @@
       <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="n">
@@ -20462,7 +20464,7 @@
       <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="n">
@@ -20473,7 +20475,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="n">
@@ -20484,7 +20486,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="n">
@@ -20493,7 +20495,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="n">
@@ -20502,7 +20504,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="n">
@@ -20511,7 +20513,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="n">
@@ -20520,7 +20522,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="n">
@@ -20529,7 +20531,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="n">
@@ -20538,7 +20540,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="n">
@@ -20547,7 +20549,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="n">
@@ -20556,7 +20558,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="n">
@@ -20565,7 +20567,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="n">
@@ -20574,7 +20576,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="n">
@@ -20583,7 +20585,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="n">
@@ -20592,7 +20594,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="n">
@@ -20601,7 +20603,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="n">
@@ -20610,7 +20612,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="n">
@@ -20619,7 +20621,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="n">
@@ -20628,7 +20630,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="n">
@@ -20637,7 +20639,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="n">
@@ -20646,7 +20648,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="n">
@@ -20655,7 +20657,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="n">
@@ -20664,7 +20666,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="n">
@@ -20673,7 +20675,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="n">
@@ -20682,7 +20684,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="n">
@@ -20691,7 +20693,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="n">
@@ -20700,7 +20702,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="n">
@@ -20709,7 +20711,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="n">
@@ -20718,7 +20720,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="n">
@@ -20727,7 +20729,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="n">
@@ -20736,7 +20738,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="n">
@@ -20745,7 +20747,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="n">
@@ -20754,7 +20756,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
+      <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="n">
@@ -20763,7 +20765,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="n">
@@ -20772,7 +20774,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="n">
@@ -20781,7 +20783,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="n">
@@ -20790,7 +20792,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="n">
@@ -20799,7 +20801,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="n">
@@ -20808,7 +20810,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
+      <c r="A47" s="1"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="n">
@@ -20817,7 +20819,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="n">
@@ -20826,7 +20828,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
+      <c r="A49" s="1"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="n">
@@ -20835,7 +20837,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
+      <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="n">
@@ -20844,7 +20846,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
+      <c r="A51" s="1"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="n">
@@ -20853,7 +20855,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
+      <c r="A52" s="1"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="n">
@@ -20862,7 +20864,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
+      <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="n">
@@ -20871,7 +20873,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
+      <c r="A54" s="1"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="n">
@@ -20880,7 +20882,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
+      <c r="A55" s="1"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="n">
@@ -20889,7 +20891,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
+      <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="n">
@@ -20898,7 +20900,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
+      <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="n">
@@ -20907,7 +20909,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
+      <c r="A58" s="1"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="n">
@@ -20916,7 +20918,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
+      <c r="A59" s="1"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="n">
@@ -20925,7 +20927,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="n">
@@ -20934,7 +20936,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="n">
@@ -20943,7 +20945,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6"/>
+      <c r="A62" s="1"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="n">
@@ -20952,7 +20954,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
+      <c r="A63" s="1"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="n">
@@ -20961,7 +20963,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
+      <c r="A64" s="1"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="n">
@@ -20970,7 +20972,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6"/>
+      <c r="A65" s="1"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="n">
@@ -20979,7 +20981,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6"/>
+      <c r="A66" s="1"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="n">
@@ -20988,7 +20990,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6"/>
+      <c r="A67" s="1"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="n">
@@ -20997,7 +20999,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
+      <c r="A68" s="1"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="n">
@@ -21006,7 +21008,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
+      <c r="A69" s="1"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="n">
@@ -21015,7 +21017,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
+      <c r="A70" s="1"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="n">
@@ -21024,7 +21026,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
+      <c r="A71" s="1"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="n">
@@ -21033,7 +21035,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="n">
@@ -21042,7 +21044,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
+      <c r="A73" s="1"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="n">
@@ -21051,7 +21053,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
+      <c r="A74" s="1"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="n">
@@ -21060,7 +21062,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6"/>
+      <c r="A75" s="1"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="n">
@@ -21069,7 +21071,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6"/>
+      <c r="A76" s="1"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="n">
@@ -21078,7 +21080,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6"/>
+      <c r="A77" s="1"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="n">
@@ -21087,7 +21089,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="n">
@@ -21096,7 +21098,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
+      <c r="A79" s="1"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="n">
@@ -21105,7 +21107,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6"/>
+      <c r="A80" s="1"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="n">
@@ -21114,7 +21116,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6"/>
+      <c r="A81" s="1"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="n">
@@ -21123,7 +21125,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6"/>
+      <c r="A82" s="1"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="n">
@@ -21132,7 +21134,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6"/>
+      <c r="A83" s="1"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="n">
@@ -21141,7 +21143,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6"/>
+      <c r="A84" s="1"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="n">
@@ -21150,7 +21152,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6"/>
+      <c r="A85" s="1"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="n">
@@ -21159,7 +21161,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6"/>
+      <c r="A86" s="1"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="n">
@@ -21168,7 +21170,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6"/>
+      <c r="A87" s="1"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="n">
@@ -21177,7 +21179,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6"/>
+      <c r="A88" s="1"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="n">
@@ -21186,7 +21188,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
+      <c r="A89" s="1"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="n">
@@ -21195,7 +21197,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6"/>
+      <c r="A90" s="1"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="n">
@@ -21204,7 +21206,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
+      <c r="A91" s="1"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="n">
@@ -21213,7 +21215,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6"/>
+      <c r="A92" s="1"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="n">
@@ -21222,7 +21224,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
+      <c r="A93" s="1"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="n">
@@ -21231,7 +21233,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
+      <c r="A94" s="1"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="n">
@@ -21240,7 +21242,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6"/>
+      <c r="A95" s="1"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="n">
@@ -21249,7 +21251,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6"/>
+      <c r="A96" s="1"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="n">
@@ -21258,7 +21260,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6"/>
+      <c r="A97" s="1"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="n">
@@ -21267,7 +21269,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6"/>
+      <c r="A98" s="1"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="n">
@@ -21276,7 +21278,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
+      <c r="A99" s="1"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="n">
@@ -21285,7 +21287,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6"/>
+      <c r="A100" s="1"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="n">
@@ -21294,7 +21296,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
+      <c r="A101" s="1"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="n">
@@ -21303,7 +21305,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6"/>
+      <c r="A102" s="1"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="n">
@@ -21312,7 +21314,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6"/>
+      <c r="A103" s="1"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="n">
@@ -21321,7 +21323,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6"/>
+      <c r="A104" s="1"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="n">
@@ -21330,7 +21332,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6"/>
+      <c r="A105" s="1"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="n">
@@ -21339,7 +21341,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6"/>
+      <c r="A106" s="1"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="n">
@@ -21348,7 +21350,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6"/>
+      <c r="A107" s="1"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="n">
@@ -21357,7 +21359,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6"/>
+      <c r="A108" s="1"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="n">
@@ -21366,7 +21368,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6"/>
+      <c r="A109" s="1"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="n">
@@ -21375,7 +21377,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6"/>
+      <c r="A110" s="1"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="n">
@@ -21384,7 +21386,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6"/>
+      <c r="A111" s="1"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="n">
@@ -21393,7 +21395,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6"/>
+      <c r="A112" s="1"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="n">
@@ -21402,7 +21404,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6"/>
+      <c r="A113" s="1"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="n">
@@ -21411,7 +21413,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6"/>
+      <c r="A114" s="1"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="n">
@@ -21420,7 +21422,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6"/>
+      <c r="A115" s="1"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="n">
@@ -21429,7 +21431,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6"/>
+      <c r="A116" s="1"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="n">
@@ -21438,7 +21440,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6"/>
+      <c r="A117" s="1"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="n">
@@ -21447,7 +21449,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6"/>
+      <c r="A118" s="1"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="n">
@@ -21456,7 +21458,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6"/>
+      <c r="A119" s="1"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="n">
@@ -21465,7 +21467,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6"/>
+      <c r="A120" s="1"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="n">
@@ -21474,7 +21476,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6"/>
+      <c r="A121" s="1"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="n">
@@ -21483,7 +21485,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6"/>
+      <c r="A122" s="1"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="n">
@@ -21492,7 +21494,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6"/>
+      <c r="A123" s="1"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="n">
@@ -21501,7 +21503,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6"/>
+      <c r="A124" s="1"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="n">
@@ -21510,7 +21512,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6"/>
+      <c r="A125" s="1"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="n">
@@ -21519,7 +21521,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6"/>
+      <c r="A126" s="1"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="n">
@@ -21528,7 +21530,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6"/>
+      <c r="A127" s="1"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="n">
@@ -21537,7 +21539,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6"/>
+      <c r="A128" s="1"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="n">
@@ -21546,7 +21548,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6"/>
+      <c r="A129" s="1"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="n">
@@ -21555,7 +21557,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6"/>
+      <c r="A130" s="1"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="n">
@@ -21564,7 +21566,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6"/>
+      <c r="A131" s="1"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="n">
@@ -21573,7 +21575,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6"/>
+      <c r="A132" s="1"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="n">
@@ -21582,7 +21584,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6"/>
+      <c r="A133" s="1"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="n">
@@ -21591,7 +21593,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6"/>
+      <c r="A134" s="1"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="n">
@@ -21600,7 +21602,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6"/>
+      <c r="A135" s="1"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="n">
@@ -21609,7 +21611,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6"/>
+      <c r="A136" s="1"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="n">
@@ -21618,7 +21620,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6"/>
+      <c r="A137" s="1"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="n">
@@ -21627,7 +21629,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6"/>
+      <c r="A138" s="1"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="n">
@@ -21636,7 +21638,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6"/>
+      <c r="A139" s="1"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="n">
@@ -21645,7 +21647,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6"/>
+      <c r="A140" s="1"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="n">
@@ -21654,7 +21656,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6"/>
+      <c r="A141" s="1"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="n">
@@ -21663,7 +21665,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6"/>
+      <c r="A142" s="1"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="n">
@@ -21672,7 +21674,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6"/>
+      <c r="A143" s="1"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="n">
@@ -21681,7 +21683,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6"/>
+      <c r="A144" s="1"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="n">
@@ -21690,7 +21692,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6"/>
+      <c r="A145" s="1"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="n">
@@ -21699,7 +21701,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6"/>
+      <c r="A146" s="1"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="n">
@@ -21708,7 +21710,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6"/>
+      <c r="A147" s="1"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="n">
@@ -21717,7 +21719,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6"/>
+      <c r="A148" s="1"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="n">
@@ -21726,7 +21728,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6"/>
+      <c r="A149" s="1"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="n">
@@ -21735,7 +21737,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6"/>
+      <c r="A150" s="1"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="n">
@@ -21744,7 +21746,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6"/>
+      <c r="A151" s="1"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="n">
@@ -21753,7 +21755,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6"/>
+      <c r="A152" s="1"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="n">
@@ -21762,7 +21764,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6"/>
+      <c r="A153" s="1"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="n">
@@ -21771,7 +21773,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6"/>
+      <c r="A154" s="1"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="n">
@@ -21780,7 +21782,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6"/>
+      <c r="A155" s="1"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="n">
@@ -21789,7 +21791,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6"/>
+      <c r="A156" s="1"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="n">
@@ -21798,7 +21800,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6"/>
+      <c r="A157" s="1"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="n">
@@ -21807,7 +21809,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6"/>
+      <c r="A158" s="1"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="n">
@@ -21816,7 +21818,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6"/>
+      <c r="A159" s="1"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="n">
@@ -21825,7 +21827,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6"/>
+      <c r="A160" s="1"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="n">
@@ -21834,7 +21836,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6"/>
+      <c r="A161" s="1"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="n">
@@ -21843,7 +21845,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6"/>
+      <c r="A162" s="1"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="n">
@@ -21852,7 +21854,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6"/>
+      <c r="A163" s="1"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="n">
@@ -21861,7 +21863,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6"/>
+      <c r="A164" s="1"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="n">
@@ -21870,7 +21872,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6"/>
+      <c r="A165" s="1"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="n">
@@ -21879,7 +21881,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6"/>
+      <c r="A166" s="1"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="n">
@@ -21888,7 +21890,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6"/>
+      <c r="A167" s="1"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="n">
@@ -21897,7 +21899,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6"/>
+      <c r="A168" s="1"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="n">
@@ -21906,7 +21908,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6"/>
+      <c r="A169" s="1"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="n">
@@ -21915,7 +21917,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6"/>
+      <c r="A170" s="1"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="n">
@@ -21924,7 +21926,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6"/>
+      <c r="A171" s="1"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="n">
@@ -21933,7 +21935,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6"/>
+      <c r="A172" s="1"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="n">
@@ -21942,7 +21944,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6"/>
+      <c r="A173" s="1"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5" t="n">
@@ -21951,7 +21953,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6"/>
+      <c r="A174" s="1"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="n">
@@ -21960,7 +21962,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6"/>
+      <c r="A175" s="1"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="n">
@@ -21969,7 +21971,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6"/>
+      <c r="A176" s="1"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5" t="n">
@@ -21978,7 +21980,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6"/>
+      <c r="A177" s="1"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5" t="n">
@@ -21987,7 +21989,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6"/>
+      <c r="A178" s="1"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5" t="n">
@@ -21996,7 +21998,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6"/>
+      <c r="A179" s="1"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5" t="n">
@@ -22005,7 +22007,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6"/>
+      <c r="A180" s="1"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5" t="n">
@@ -22014,7 +22016,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6"/>
+      <c r="A181" s="1"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5" t="n">
@@ -22023,7 +22025,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="6"/>
+      <c r="A182" s="1"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5" t="n">
@@ -22032,7 +22034,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6"/>
+      <c r="A183" s="1"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5" t="n">
@@ -22041,7 +22043,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="6"/>
+      <c r="A184" s="1"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5" t="n">
@@ -22050,7 +22052,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6"/>
+      <c r="A185" s="1"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5" t="n">
@@ -22059,7 +22061,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6"/>
+      <c r="A186" s="1"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5" t="n">
@@ -22068,7 +22070,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6"/>
+      <c r="A187" s="1"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5" t="n">
@@ -22077,7 +22079,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="6"/>
+      <c r="A188" s="1"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5" t="n">
@@ -22086,7 +22088,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6"/>
+      <c r="A189" s="1"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5" t="n">
@@ -22095,7 +22097,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="6"/>
+      <c r="A190" s="1"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5" t="n">
@@ -22104,7 +22106,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6"/>
+      <c r="A191" s="1"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5" t="n">
@@ -22113,7 +22115,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="6"/>
+      <c r="A192" s="1"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5" t="n">
@@ -22122,7 +22124,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6"/>
+      <c r="A193" s="1"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5" t="n">
@@ -22131,7 +22133,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="6"/>
+      <c r="A194" s="1"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5" t="n">
@@ -22140,7 +22142,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6"/>
+      <c r="A195" s="1"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5" t="n">
@@ -22149,7 +22151,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6"/>
+      <c r="A196" s="1"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5" t="n">
@@ -22158,7 +22160,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6"/>
+      <c r="A197" s="1"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5" t="n">
@@ -22167,7 +22169,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="6"/>
+      <c r="A198" s="1"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5" t="n">
@@ -22176,7 +22178,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6"/>
+      <c r="A199" s="1"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5" t="n">
@@ -22185,7 +22187,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="6"/>
+      <c r="A200" s="1"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5" t="n">
@@ -22194,7 +22196,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="6"/>
+      <c r="A201" s="1"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5" t="n">
@@ -22203,7 +22205,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="6"/>
+      <c r="A202" s="1"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5" t="n">
@@ -22212,7 +22214,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="6"/>
+      <c r="A203" s="1"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5" t="n">
@@ -22221,7 +22223,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="6"/>
+      <c r="A204" s="1"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5" t="n">
@@ -22230,7 +22232,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="6"/>
+      <c r="A205" s="1"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5" t="n">
@@ -22239,7 +22241,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="6"/>
+      <c r="A206" s="1"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5" t="n">
@@ -22248,7 +22250,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="6"/>
+      <c r="A207" s="1"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5" t="n">
@@ -22257,7 +22259,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="6"/>
+      <c r="A208" s="1"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5" t="n">
@@ -22266,7 +22268,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="6"/>
+      <c r="A209" s="1"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5" t="n">
@@ -22275,7 +22277,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="6"/>
+      <c r="A210" s="1"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5" t="n">
@@ -22284,7 +22286,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="6"/>
+      <c r="A211" s="1"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5" t="n">
@@ -22293,7 +22295,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="6"/>
+      <c r="A212" s="1"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5" t="n">
@@ -22302,7 +22304,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="6"/>
+      <c r="A213" s="1"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5" t="n">
@@ -22311,7 +22313,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="6"/>
+      <c r="A214" s="1"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5" t="n">
@@ -22320,7 +22322,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="6"/>
+      <c r="A215" s="1"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5" t="n">
@@ -22329,7 +22331,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="6"/>
+      <c r="A216" s="1"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5" t="n">
@@ -22338,7 +22340,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="6"/>
+      <c r="A217" s="1"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5" t="n">
@@ -22347,7 +22349,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="6"/>
+      <c r="A218" s="1"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5" t="n">
@@ -22356,7 +22358,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="6"/>
+      <c r="A219" s="1"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5" t="n">
@@ -22365,7 +22367,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="6"/>
+      <c r="A220" s="1"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5" t="n">
@@ -22374,7 +22376,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="6"/>
+      <c r="A221" s="1"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5" t="n">
@@ -22383,7 +22385,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="6"/>
+      <c r="A222" s="1"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5" t="n">
@@ -22392,7 +22394,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6"/>
+      <c r="A223" s="1"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5" t="n">
@@ -22401,7 +22403,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="6"/>
+      <c r="A224" s="1"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5" t="n">
@@ -22410,7 +22412,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="6"/>
+      <c r="A225" s="1"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5" t="n">
@@ -22419,7 +22421,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="6"/>
+      <c r="A226" s="1"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5" t="n">
@@ -22428,7 +22430,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="6"/>
+      <c r="A227" s="1"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5" t="n">
@@ -22437,7 +22439,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="6"/>
+      <c r="A228" s="1"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5" t="n">
@@ -22446,7 +22448,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="6"/>
+      <c r="A229" s="1"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5" t="n">
@@ -22455,7 +22457,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="6"/>
+      <c r="A230" s="1"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5" t="n">
@@ -22464,7 +22466,7 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="6"/>
+      <c r="A231" s="1"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5" t="n">
@@ -22473,7 +22475,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6"/>
+      <c r="A232" s="1"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5" t="n">
@@ -22482,7 +22484,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6"/>
+      <c r="A233" s="1"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5" t="n">
@@ -22491,7 +22493,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="6"/>
+      <c r="A234" s="1"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5" t="n">
@@ -22500,7 +22502,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6"/>
+      <c r="A235" s="1"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5" t="n">
@@ -22509,7 +22511,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="6"/>
+      <c r="A236" s="1"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5" t="n">
@@ -22518,7 +22520,7 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="6"/>
+      <c r="A237" s="1"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5" t="n">
@@ -22527,7 +22529,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="6"/>
+      <c r="A238" s="1"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5" t="n">
@@ -22536,7 +22538,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6"/>
+      <c r="A239" s="1"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5" t="n">
@@ -22545,7 +22547,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="6"/>
+      <c r="A240" s="1"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5" t="n">
@@ -22554,7 +22556,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6"/>
+      <c r="A241" s="1"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5" t="n">
@@ -22563,7 +22565,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="6"/>
+      <c r="A242" s="1"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5" t="n">
@@ -22572,7 +22574,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="6"/>
+      <c r="A243" s="1"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5" t="n">
@@ -22581,7 +22583,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6"/>
+      <c r="A244" s="1"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5" t="n">
@@ -22590,7 +22592,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6"/>
+      <c r="A245" s="1"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5" t="n">
@@ -22599,7 +22601,7 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="6"/>
+      <c r="A246" s="1"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5" t="n">
@@ -22608,7 +22610,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6"/>
+      <c r="A247" s="1"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5" t="n">
@@ -22617,7 +22619,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="6"/>
+      <c r="A248" s="1"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5" t="n">
@@ -22626,7 +22628,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="6"/>
+      <c r="A249" s="1"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5" t="n">
@@ -22635,7 +22637,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="6"/>
+      <c r="A250" s="1"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5" t="n">
@@ -22644,7 +22646,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="6"/>
+      <c r="A251" s="1"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5" t="n">
@@ -22653,7 +22655,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6"/>
+      <c r="A252" s="1"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5" t="n">
@@ -22662,7 +22664,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6"/>
+      <c r="A253" s="1"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5" t="n">
@@ -22671,7 +22673,7 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="6"/>
+      <c r="A254" s="1"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5" t="n">
@@ -22680,7 +22682,7 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6"/>
+      <c r="A255" s="1"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5" t="n">
@@ -22689,7 +22691,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6"/>
+      <c r="A256" s="1"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5" t="n">
@@ -22698,7 +22700,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="6"/>
+      <c r="A257" s="1"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5" t="n">
@@ -22707,7 +22709,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="6"/>
+      <c r="A258" s="1"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5" t="n">
@@ -22716,7 +22718,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="6"/>
+      <c r="A259" s="1"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5" t="n">
@@ -22725,7 +22727,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="6"/>
+      <c r="A260" s="1"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5" t="n">
@@ -22734,7 +22736,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="6"/>
+      <c r="A261" s="1"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5" t="n">
@@ -22743,7 +22745,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="6"/>
+      <c r="A262" s="1"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5" t="n">
@@ -22752,7 +22754,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="6"/>
+      <c r="A263" s="1"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5" t="n">
@@ -22761,7 +22763,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="6"/>
+      <c r="A264" s="1"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5" t="n">
@@ -22770,7 +22772,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="6"/>
+      <c r="A265" s="1"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5" t="n">
@@ -22779,7 +22781,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="6"/>
+      <c r="A266" s="1"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5" t="n">
@@ -22788,7 +22790,7 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6"/>
+      <c r="A267" s="1"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5" t="n">
@@ -22797,7 +22799,7 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="6"/>
+      <c r="A268" s="1"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5" t="n">
@@ -22806,7 +22808,7 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6"/>
+      <c r="A269" s="1"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5" t="n">
@@ -22815,7 +22817,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6"/>
+      <c r="A270" s="1"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5" t="n">
@@ -22824,7 +22826,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6"/>
+      <c r="A271" s="1"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5" t="n">
@@ -22833,7 +22835,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="6"/>
+      <c r="A272" s="1"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5" t="n">
@@ -22842,7 +22844,7 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="6"/>
+      <c r="A273" s="1"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5" t="n">
@@ -22851,7 +22853,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="6"/>
+      <c r="A274" s="1"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5" t="n">
@@ -22860,7 +22862,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="6"/>
+      <c r="A275" s="1"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5" t="n">
@@ -22869,7 +22871,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="6"/>
+      <c r="A276" s="1"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5" t="n">
@@ -22878,7 +22880,7 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="6"/>
+      <c r="A277" s="1"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5" t="n">
@@ -22887,7 +22889,7 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="6"/>
+      <c r="A278" s="1"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5" t="n">
@@ -22896,7 +22898,7 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="6"/>
+      <c r="A279" s="1"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5" t="n">
@@ -22905,7 +22907,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="6"/>
+      <c r="A280" s="1"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5" t="n">
@@ -22914,7 +22916,7 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="6"/>
+      <c r="A281" s="1"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5" t="n">
@@ -22923,7 +22925,7 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="6"/>
+      <c r="A282" s="1"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5" t="n">
@@ -22932,7 +22934,7 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="6"/>
+      <c r="A283" s="1"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5" t="n">
@@ -22941,7 +22943,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="6"/>
+      <c r="A284" s="1"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5" t="n">
@@ -22950,7 +22952,7 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="6"/>
+      <c r="A285" s="1"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5" t="n">
@@ -22959,7 +22961,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="6"/>
+      <c r="A286" s="1"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5" t="n">
@@ -22968,7 +22970,7 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="6"/>
+      <c r="A287" s="1"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5" t="n">
@@ -22977,7 +22979,7 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="6"/>
+      <c r="A288" s="1"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5" t="n">
@@ -22986,7 +22988,7 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="6"/>
+      <c r="A289" s="1"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5" t="n">
@@ -22995,7 +22997,7 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="6"/>
+      <c r="A290" s="1"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5" t="n">
@@ -23004,7 +23006,7 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="6"/>
+      <c r="A291" s="1"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5" t="n">
@@ -23013,7 +23015,7 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="6"/>
+      <c r="A292" s="1"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5" t="n">
@@ -23022,7 +23024,7 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="6"/>
+      <c r="A293" s="1"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5" t="n">
@@ -23031,7 +23033,7 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="6"/>
+      <c r="A294" s="1"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5" t="n">
@@ -23040,7 +23042,7 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="6"/>
+      <c r="A295" s="1"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5" t="n">
@@ -23049,7 +23051,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="6"/>
+      <c r="A296" s="1"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5" t="n">
@@ -23058,7 +23060,7 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="6"/>
+      <c r="A297" s="1"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5" t="n">
@@ -23067,7 +23069,7 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="6"/>
+      <c r="A298" s="1"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5" t="n">
@@ -23076,7 +23078,7 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="6"/>
+      <c r="A299" s="1"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5" t="n">
@@ -23085,7 +23087,7 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="6"/>
+      <c r="A300" s="1"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5" t="n">
@@ -23094,7 +23096,7 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="6"/>
+      <c r="A301" s="1"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5" t="n">
@@ -23103,7 +23105,7 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="6"/>
+      <c r="A302" s="1"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5" t="n">
@@ -23112,7 +23114,7 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="6"/>
+      <c r="A303" s="1"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5" t="n">
@@ -23121,7 +23123,7 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="6"/>
+      <c r="A304" s="1"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5" t="n">
@@ -23130,7 +23132,7 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="6"/>
+      <c r="A305" s="1"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5" t="n">
@@ -23139,7 +23141,7 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="6"/>
+      <c r="A306" s="1"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5" t="n">
@@ -23148,7 +23150,7 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="6"/>
+      <c r="A307" s="1"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5" t="n">
@@ -23157,7 +23159,7 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="6"/>
+      <c r="A308" s="1"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5" t="n">
@@ -23166,7 +23168,7 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="6"/>
+      <c r="A309" s="1"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5" t="n">
@@ -23175,7 +23177,7 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="6"/>
+      <c r="A310" s="1"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5" t="n">
@@ -23184,7 +23186,7 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="6"/>
+      <c r="A311" s="1"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5" t="n">
@@ -23193,7 +23195,7 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="6"/>
+      <c r="A312" s="1"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5" t="n">
@@ -23202,7 +23204,7 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="6"/>
+      <c r="A313" s="1"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5" t="n">
@@ -23211,7 +23213,7 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="6"/>
+      <c r="A314" s="1"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5" t="n">
@@ -23220,7 +23222,7 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="6"/>
+      <c r="A315" s="1"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5" t="n">
@@ -23229,7 +23231,7 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="6"/>
+      <c r="A316" s="1"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5" t="n">
@@ -23238,7 +23240,7 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="6"/>
+      <c r="A317" s="1"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5" t="n">
@@ -23247,7 +23249,7 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="6"/>
+      <c r="A318" s="1"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5" t="n">
@@ -23256,7 +23258,7 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="6"/>
+      <c r="A319" s="1"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5" t="n">
@@ -23265,7 +23267,7 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="6"/>
+      <c r="A320" s="1"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5" t="n">
@@ -23274,7 +23276,7 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="6"/>
+      <c r="A321" s="1"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5" t="n">
@@ -23283,7 +23285,7 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="6"/>
+      <c r="A322" s="1"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5" t="n">
@@ -23292,7 +23294,7 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="6"/>
+      <c r="A323" s="1"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5" t="n">
@@ -23301,7 +23303,7 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="6"/>
+      <c r="A324" s="1"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5" t="n">
@@ -23310,7 +23312,7 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="6"/>
+      <c r="A325" s="1"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5" t="n">
@@ -23319,7 +23321,7 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="6"/>
+      <c r="A326" s="1"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5" t="n">
@@ -23328,7 +23330,7 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="6"/>
+      <c r="A327" s="1"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5" t="n">
@@ -23337,7 +23339,7 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="6"/>
+      <c r="A328" s="1"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5" t="n">
@@ -23346,7 +23348,7 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="6"/>
+      <c r="A329" s="1"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5" t="n">
@@ -23355,7 +23357,7 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="6"/>
+      <c r="A330" s="1"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5" t="n">
@@ -23364,7 +23366,7 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="6"/>
+      <c r="A331" s="1"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5" t="n">
@@ -23373,7 +23375,7 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="6"/>
+      <c r="A332" s="1"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5" t="n">
@@ -23382,7 +23384,7 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="6"/>
+      <c r="A333" s="1"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5" t="n">
@@ -23391,7 +23393,7 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="6"/>
+      <c r="A334" s="1"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5" t="n">
@@ -23400,7 +23402,7 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="6"/>
+      <c r="A335" s="1"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5" t="n">
@@ -23409,7 +23411,7 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="6"/>
+      <c r="A336" s="1"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5" t="n">
@@ -23418,7 +23420,7 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="6"/>
+      <c r="A337" s="1"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5" t="n">
@@ -23427,7 +23429,7 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="6"/>
+      <c r="A338" s="1"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5" t="n">
@@ -23436,7 +23438,7 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="6"/>
+      <c r="A339" s="1"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5" t="n">
@@ -23445,7 +23447,7 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="6"/>
+      <c r="A340" s="1"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5" t="n">
@@ -23454,7 +23456,7 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="6"/>
+      <c r="A341" s="1"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5" t="n">
@@ -23463,7 +23465,7 @@
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="6"/>
+      <c r="A342" s="1"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5" t="n">
@@ -23472,7 +23474,7 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="6"/>
+      <c r="A343" s="1"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5" t="n">
@@ -23481,7 +23483,7 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="6"/>
+      <c r="A344" s="1"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5" t="n">
@@ -23490,7 +23492,7 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="6"/>
+      <c r="A345" s="1"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5" t="n">
@@ -23499,7 +23501,7 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="6"/>
+      <c r="A346" s="1"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5" t="n">
@@ -23508,7 +23510,7 @@
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="6"/>
+      <c r="A347" s="1"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5" t="n">
@@ -23517,7 +23519,7 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="6"/>
+      <c r="A348" s="1"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5" t="n">
@@ -23526,7 +23528,7 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="6"/>
+      <c r="A349" s="1"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5" t="n">
@@ -23535,7 +23537,7 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="6"/>
+      <c r="A350" s="1"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5" t="n">
@@ -23544,7 +23546,7 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="6"/>
+      <c r="A351" s="1"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5" t="n">
@@ -23553,7 +23555,7 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="6"/>
+      <c r="A352" s="1"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5" t="n">
@@ -23562,7 +23564,7 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="6"/>
+      <c r="A353" s="1"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5" t="n">
@@ -23571,7 +23573,7 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="6"/>
+      <c r="A354" s="1"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5" t="n">
@@ -23580,7 +23582,7 @@
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="6"/>
+      <c r="A355" s="1"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5" t="n">
@@ -23589,7 +23591,7 @@
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="6"/>
+      <c r="A356" s="1"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5" t="n">
@@ -23598,7 +23600,7 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="6"/>
+      <c r="A357" s="1"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5" t="n">
@@ -23607,7 +23609,7 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="6"/>
+      <c r="A358" s="1"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5" t="n">
@@ -23616,7 +23618,7 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="6"/>
+      <c r="A359" s="1"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5" t="n">
@@ -23625,7 +23627,7 @@
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="6"/>
+      <c r="A360" s="1"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5" t="n">
@@ -23634,7 +23636,7 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="6"/>
+      <c r="A361" s="1"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5" t="n">
@@ -23643,7 +23645,7 @@
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="6"/>
+      <c r="A362" s="1"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5" t="n">
@@ -23652,7 +23654,7 @@
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="6"/>
+      <c r="A363" s="1"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5" t="n">
@@ -23661,7 +23663,7 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="6"/>
+      <c r="A364" s="1"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5" t="n">
@@ -23670,7 +23672,7 @@
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="6"/>
+      <c r="A365" s="1"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5" t="n">
@@ -23679,7 +23681,7 @@
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="6"/>
+      <c r="A366" s="1"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5" t="n">
@@ -23688,7 +23690,7 @@
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="6"/>
+      <c r="A367" s="1"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5" t="n">
@@ -23697,7 +23699,7 @@
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="6"/>
+      <c r="A368" s="1"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5" t="n">
@@ -23706,7 +23708,7 @@
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="6"/>
+      <c r="A369" s="1"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5" t="n">
@@ -23715,7 +23717,7 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="6"/>
+      <c r="A370" s="1"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5" t="n">
@@ -23724,7 +23726,7 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="6"/>
+      <c r="A371" s="1"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5" t="n">
@@ -23733,7 +23735,7 @@
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="6"/>
+      <c r="A372" s="1"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5" t="n">
@@ -23742,7 +23744,7 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="6"/>
+      <c r="A373" s="1"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5" t="n">
@@ -23751,7 +23753,7 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="6"/>
+      <c r="A374" s="1"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5" t="n">
@@ -23760,7 +23762,7 @@
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="6"/>
+      <c r="A375" s="1"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5" t="n">
@@ -23769,7 +23771,7 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="6"/>
+      <c r="A376" s="1"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5" t="n">
@@ -23778,7 +23780,7 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="6"/>
+      <c r="A377" s="1"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5" t="n">
@@ -23787,7 +23789,7 @@
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="6"/>
+      <c r="A378" s="1"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5" t="n">
@@ -23796,7 +23798,7 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="6"/>
+      <c r="A379" s="1"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5" t="n">
@@ -23805,7 +23807,7 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="6"/>
+      <c r="A380" s="1"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5" t="n">
@@ -23814,7 +23816,7 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="6"/>
+      <c r="A381" s="1"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5" t="n">
@@ -23823,7 +23825,7 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="6"/>
+      <c r="A382" s="1"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5" t="n">
@@ -23832,7 +23834,7 @@
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="6"/>
+      <c r="A383" s="1"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5" t="n">
@@ -23841,7 +23843,7 @@
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="6"/>
+      <c r="A384" s="1"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5" t="n">
@@ -23850,7 +23852,7 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="6"/>
+      <c r="A385" s="1"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5" t="n">
@@ -23859,7 +23861,7 @@
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="6"/>
+      <c r="A386" s="1"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5" t="n">
@@ -23868,7 +23870,7 @@
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="6"/>
+      <c r="A387" s="1"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5" t="n">
@@ -23877,7 +23879,7 @@
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="6"/>
+      <c r="A388" s="1"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5" t="n">
@@ -23886,7 +23888,7 @@
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="6"/>
+      <c r="A389" s="1"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5" t="n">
@@ -23895,7 +23897,7 @@
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="6"/>
+      <c r="A390" s="1"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5" t="n">
@@ -23904,7 +23906,7 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="6"/>
+      <c r="A391" s="1"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5" t="n">
@@ -23913,7 +23915,7 @@
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="6"/>
+      <c r="A392" s="1"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5" t="n">
@@ -23922,7 +23924,7 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="6"/>
+      <c r="A393" s="1"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5" t="n">
@@ -23931,7 +23933,7 @@
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="6"/>
+      <c r="A394" s="1"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5" t="n">
@@ -23940,7 +23942,7 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="6"/>
+      <c r="A395" s="1"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5" t="n">
@@ -23949,7 +23951,7 @@
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="6"/>
+      <c r="A396" s="1"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5" t="n">
@@ -23958,7 +23960,7 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="6"/>
+      <c r="A397" s="1"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5" t="n">
@@ -23967,7 +23969,7 @@
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="6"/>
+      <c r="A398" s="1"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5" t="n">
@@ -23976,7 +23978,7 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="6"/>
+      <c r="A399" s="1"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5" t="n">
@@ -23985,7 +23987,7 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="6"/>
+      <c r="A400" s="1"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5" t="n">
@@ -23994,7 +23996,7 @@
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="6"/>
+      <c r="A401" s="1"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5" t="n">
@@ -24003,7 +24005,7 @@
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="6"/>
+      <c r="A402" s="1"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5" t="n">
@@ -24012,7 +24014,7 @@
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="6"/>
+      <c r="A403" s="1"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5" t="n">
@@ -24021,7 +24023,7 @@
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="6"/>
+      <c r="A404" s="1"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5" t="n">
@@ -24030,7 +24032,7 @@
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="6"/>
+      <c r="A405" s="1"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5" t="n">
@@ -24039,7 +24041,7 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="6"/>
+      <c r="A406" s="1"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5" t="n">
@@ -24048,7 +24050,7 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="6"/>
+      <c r="A407" s="1"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5" t="n">
@@ -24057,7 +24059,7 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="6"/>
+      <c r="A408" s="1"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5" t="n">
@@ -24066,7 +24068,7 @@
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="6"/>
+      <c r="A409" s="1"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5" t="n">
@@ -24075,7 +24077,7 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="6"/>
+      <c r="A410" s="1"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5" t="n">
@@ -24084,7 +24086,7 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="6"/>
+      <c r="A411" s="1"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5" t="n">
@@ -24093,7 +24095,7 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="6"/>
+      <c r="A412" s="1"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5" t="n">
@@ -24102,7 +24104,7 @@
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="6"/>
+      <c r="A413" s="1"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5" t="n">
@@ -24111,7 +24113,7 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="6"/>
+      <c r="A414" s="1"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5" t="n">
@@ -24120,7 +24122,7 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="6"/>
+      <c r="A415" s="1"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5" t="n">
@@ -24129,7 +24131,7 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="6"/>
+      <c r="A416" s="1"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5" t="n">
@@ -24138,7 +24140,7 @@
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="6"/>
+      <c r="A417" s="1"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5" t="n">
@@ -24147,7 +24149,7 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="6"/>
+      <c r="A418" s="1"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5" t="n">
@@ -24156,7 +24158,7 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="6"/>
+      <c r="A419" s="1"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5" t="n">
@@ -24165,7 +24167,7 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="6"/>
+      <c r="A420" s="1"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5" t="n">
@@ -24174,7 +24176,7 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="6"/>
+      <c r="A421" s="1"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5" t="n">
@@ -24183,7 +24185,7 @@
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="6"/>
+      <c r="A422" s="1"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5" t="n">
@@ -24192,7 +24194,7 @@
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="6"/>
+      <c r="A423" s="1"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5" t="n">
@@ -24201,7 +24203,7 @@
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="6"/>
+      <c r="A424" s="1"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5" t="n">
@@ -24210,7 +24212,7 @@
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="6"/>
+      <c r="A425" s="1"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5" t="n">
@@ -24219,7 +24221,7 @@
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="6"/>
+      <c r="A426" s="1"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5" t="n">
@@ -24228,7 +24230,7 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="6"/>
+      <c r="A427" s="1"/>
       <c r="B427" s="5"/>
       <c r="D427" s="5" t="n">
         <f aca="false">C427-B427</f>
